--- a/Data_proglio/Clinical_Goals/viktigste/LET_dose_statistics.xlsx
+++ b/Data_proglio/Clinical_Goals/viktigste/LET_dose_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaswetzel/Documents/Master_Medisin/Masteroppgave/Master/Master-Thesis/Data_proglio/Clinical_Goals/viktigste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5314C0D-1E44-4F42-B9D2-DC3546D58DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362304D5-9F0F-AB4D-BAE9-65B36DAB7679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="1900" windowWidth="18420" windowHeight="14780" xr2:uid="{0DF30768-FE05-834F-85E7-A299331FA56F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="25">
   <si>
     <t>Organ</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Passiennummer</t>
-  </si>
-  <si>
-    <t>dobbelt sjekk</t>
   </si>
 </sst>
 </file>
@@ -472,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28583616-64D2-7B4C-A4D8-297B2FBF505E}">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,6 +546,9 @@
       <c r="C5">
         <v>8.8000000000000007</v>
       </c>
+      <c r="D5">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -560,6 +560,9 @@
       <c r="C6">
         <v>8.1</v>
       </c>
+      <c r="D6">
+        <v>20.399999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -582,6 +585,12 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -593,6 +602,9 @@
       <c r="C9">
         <v>3.5</v>
       </c>
+      <c r="D9">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -601,6 +613,12 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10">
+        <v>2.4</v>
+      </c>
+      <c r="D10">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -612,6 +630,9 @@
       <c r="C11">
         <v>3.7</v>
       </c>
+      <c r="D11">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -651,6 +672,9 @@
       <c r="C14">
         <v>5.6</v>
       </c>
+      <c r="D14">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -662,6 +686,9 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -687,6 +714,9 @@
       <c r="C17">
         <v>2.2999999999999998</v>
       </c>
+      <c r="D17">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -698,6 +728,9 @@
       <c r="C18">
         <v>6.8</v>
       </c>
+      <c r="D18">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -723,6 +756,9 @@
       <c r="C20">
         <v>5.8</v>
       </c>
+      <c r="D20">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2502,6 +2538,9 @@
       <c r="C171">
         <v>3.6</v>
       </c>
+      <c r="D171">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
@@ -2513,6 +2552,9 @@
       <c r="C172">
         <v>2.2999999999999998</v>
       </c>
+      <c r="D172">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
@@ -2524,6 +2566,9 @@
       <c r="C173">
         <v>3.1</v>
       </c>
+      <c r="D173">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
@@ -2535,6 +2580,9 @@
       <c r="C174">
         <v>1.9</v>
       </c>
+      <c r="D174">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
@@ -2546,6 +2594,9 @@
       <c r="C175">
         <v>0</v>
       </c>
+      <c r="D175">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
@@ -2557,6 +2608,9 @@
       <c r="C176">
         <v>3.5</v>
       </c>
+      <c r="D176">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
@@ -4042,7 +4096,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>26</v>
       </c>
@@ -4056,7 +4110,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>26</v>
       </c>
@@ -4070,7 +4124,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>26</v>
       </c>
@@ -4084,7 +4138,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>26</v>
       </c>
@@ -4098,7 +4152,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>26</v>
       </c>
@@ -4112,7 +4166,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>26</v>
       </c>
@@ -4126,7 +4180,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>26</v>
       </c>
@@ -4140,7 +4194,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>26</v>
       </c>
@@ -4154,7 +4208,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>26</v>
       </c>
@@ -4167,11 +4221,8 @@
       <c r="D297">
         <v>15.3</v>
       </c>
-      <c r="E297" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>26</v>
       </c>
@@ -4185,7 +4236,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>26</v>
       </c>
@@ -4199,7 +4250,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>26</v>
       </c>
@@ -4213,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>26</v>
       </c>
@@ -4227,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>26</v>
       </c>
@@ -4241,7 +4292,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>26</v>
       </c>
@@ -4255,7 +4306,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>26</v>
       </c>
